--- a/tests/data/output/一级测试用例-05002_result.xlsx
+++ b/tests/data/output/一级测试用例-05002_result.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>keyValue</t>
+          <t>key_value_main</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"郎敏","id_card_no":"130208196112153123","phone":"13741867617"}</t>
+          <t>{"user_name":"暴丽","id_card_no":"110114199402053405","phone":"18719664720"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"法洁","id_card_no":"440301196907089464","phone":"18974905940"}</t>
+          <t>{"user_name":"麻洋","id_card_no":"370303197509267076","phone":"13882793793"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05002_result.xlsx
+++ b/tests/data/output/一级测试用例-05002_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"暴丽","id_card_no":"110114199402053405","phone":"18719664720"}</t>
+          <t>{"user_name":"祝淑兰","id_card_no":"371200197906243760","phone":"15238981383"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"麻洋","id_card_no":"370303197509267076","phone":"13882793793"}</t>
+          <t>{"user_name":"姬瑞","id_card_no":"45100219640824061X","phone":"14500636034"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05002_result.xlsx
+++ b/tests/data/output/一级测试用例-05002_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"祝淑兰","id_card_no":"371200197906243760","phone":"15238981383"}</t>
+          <t>{"user_name":"却玉","id_card_no":"211204196612139673","phone":"13138767328"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"姬瑞","id_card_no":"45100219640824061X","phone":"14500636034"}</t>
+          <t>{"user_name":"严静","id_card_no":"341500198012090166","phone":"14756491342"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05002_result.xlsx
+++ b/tests/data/output/一级测试用例-05002_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"却玉","id_card_no":"211204196612139673","phone":"13138767328"}</t>
+          <t>{"user_name":"戎欣","id_card_no":"45012319490130133X","phone":"13554167614"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"严静","id_card_no":"341500198012090166","phone":"14756491342"}</t>
+          <t>{"user_name":"仰欣","id_card_no":"411481194504263791","phone":"18807171297"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05002_result.xlsx
+++ b/tests/data/output/一级测试用例-05002_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"戎欣","id_card_no":"45012319490130133X","phone":"13554167614"}</t>
+          <t>{"user_name":"山云","id_card_no":"530800198008241305","phone":"18763416974"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"仰欣","id_card_no":"411481194504263791","phone":"18807171297"}</t>
+          <t>{"user_name":"况瑜","id_card_no":"410724196801136438","phone":"15836821910"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05002_result.xlsx
+++ b/tests/data/output/一级测试用例-05002_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"山云","id_card_no":"530800198008241305","phone":"18763416974"}</t>
+          <t>{"user_name":"高东","id_card_no":"32100319560118021X","phone":"15198367919"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"况瑜","id_card_no":"410724196801136438","phone":"15836821910"}</t>
+          <t>{"user_name":"柏瑜","id_card_no":"320804196911124356","phone":"18190296031"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05002_result.xlsx
+++ b/tests/data/output/一级测试用例-05002_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"高东","id_card_no":"32100319560118021X","phone":"15198367919"}</t>
+          <t>{"user_name":"姜亮","id_card_no":"220200195402156716","phone":"15356981835"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"柏瑜","id_card_no":"320804196911124356","phone":"18190296031"}</t>
+          <t>{"user_name":"庞桂珍","id_card_no":"150725197303102929","phone":"18642029566"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05002_result.xlsx
+++ b/tests/data/output/一级测试用例-05002_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"姜亮","id_card_no":"220200195402156716","phone":"15356981835"}</t>
+          <t>{"user_name":"蒋阳","id_card_no":"360829199601218769","phone":"18024245681"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"庞桂珍","id_card_no":"150725197303102929","phone":"18642029566"}</t>
+          <t>{"user_name":"公萍","id_card_no":"410403196507142767","phone":"18857903408"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05002_result.xlsx
+++ b/tests/data/output/一级测试用例-05002_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"蒋阳","id_card_no":"360829199601218769","phone":"18024245681"}</t>
+          <t>{"user_name":"赫秀英","id_card_no":"341522194511276002","phone":"18045593805"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"公萍","id_card_no":"410403196507142767","phone":"18857903408"}</t>
+          <t>{"user_name":"米雷","id_card_no":"632500199002047548","phone":"13625027782"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05002_result.xlsx
+++ b/tests/data/output/一级测试用例-05002_result.xlsx
@@ -1,37 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>用例编号</t>
+  </si>
+  <si>
+    <t>测试模块</t>
+  </si>
+  <si>
+    <t>用例标题</t>
+  </si>
+  <si>
+    <t>table_main</t>
+  </si>
+  <si>
+    <t>table_main_subA</t>
+  </si>
+  <si>
+    <t>table_main_subB</t>
+  </si>
+  <si>
+    <t>预期测试结果</t>
+  </si>
+  <si>
+    <t>测试用例key</t>
+  </si>
+  <si>
+    <t>实际测试结果</t>
+  </si>
+  <si>
+    <t>是否通过</t>
+  </si>
+  <si>
+    <t>key_value_main</t>
+  </si>
+  <si>
+    <t>ps_name_id</t>
+  </si>
+  <si>
+    <t>info_certification.id;
+info_certification.certification_type="ID_NAME";
+info_certification.result=true</t>
+  </si>
+  <si>
+    <t>info_certification.id;
+info_certification.certification_type="ID_NAME";
+info_certification.result=false</t>
+  </si>
+  <si>
+    <t>ps_name_id=0</t>
+  </si>
+  <si>
+    <t>ps_name_id=1</t>
+  </si>
+  <si>
+    <t>user_name;
+id_card_no;
+phone</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>{"user_name":"殷健","id_card_no":"140601196606029471","phone":"14797845606"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"方健","id_card_no":"611026193807281483","phone":"18774001243"}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +123,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -353,188 +439,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>用例编号</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>测试模块</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>用例标题</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>table_main</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>table_main_subA</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>table_main_subB</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>预期测试结果</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>测试用例key</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>实际测试结果</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>是否通过</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>key_value_main</t>
-        </is>
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>12</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>5002</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ps_name_id</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>info_certification.id;
-info_certification.certification_type="ID_NAME";
-info_certification.result=true</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ps_name_id=0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>{"user_name":"赫秀英","id_card_no":"341522194511276002","phone":"18045593805"}</t>
-        </is>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>13</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>5002</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ps_name_id</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>info_certification.id;
-info_certification.certification_type="ID_NAME";
-info_certification.result=false</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>ps_name_id=1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>{"user_name":"米雷","id_card_no":"632500199002047548","phone":"13625027782"}</t>
-        </is>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>